--- a/biology/Microbiologie/Trichophryidae/Trichophryidae.xlsx
+++ b/biology/Microbiologie/Trichophryidae/Trichophryidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Trichophryidae sont une famille de Ciliés de la classe des Kinetofragminophora et de l’ordre des Suctorida.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Trichophrya, dérivé du grec ancien θριξ / thrix), « cheveu, poil, soie, cil », et de οφρύς / ophrýs, « sourcil ⇒ cil ⇒ cilié », littéralement « cilié hérissé de poils ».
 </t>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Trichophryidae sont de petite taille (&lt; 80 μm). Leur trophonte est aplati, attaché au substrat par une large partie du corps ou une protubérance du corps mais sans pédoncule. Quelques formes loriquées, principalement à lorique muqueuse. Les tentacules sont capités ou en forme de bâtonnet, parfois disposés en rangées ou en fascicules[1].
-Les essaims sont discoïdes, aplatis, à cinéties équatoriales. Le macronoyau est ellipsoïde, rubané ou ramifié. Un micronoyau est présent. Ils peuvent avoir plusieurs vacuoles contractiles[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Trichophryidae sont de petite taille (&lt; 80 μm). Leur trophonte est aplati, attaché au substrat par une large partie du corps ou une protubérance du corps mais sans pédoncule. Quelques formes loriquées, principalement à lorique muqueuse. Les tentacules sont capités ou en forme de bâtonnet, parfois disposés en rangées ou en fascicules.
+Les essaims sont discoïdes, aplatis, à cinéties équatoriales. Le macronoyau est ellipsoïde, rubané ou ramifié. Un micronoyau est présent. Ils peuvent avoir plusieurs vacuoles contractiles.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Trichophryidae vivent aussi bien dans des habitats marins que d'eau douce comme ectocommensaux sur les invertébrés et vertébrés aquatiques, certains se trouvant sur les branchies des poissons[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Trichophryidae vivent aussi bien dans des habitats marins que d'eau douce comme ectocommensaux sur les invertébrés et vertébrés aquatiques, certains se trouvant sur les branchies des poissons.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (1er juin 2023)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (1er juin 2023) :
 Actinobranchium Jankowski, 1967
 Paramucophrya Chen, Song &amp; Hu, 2005
 Platophrya Gönnert, 1935
@@ -621,7 +641,7 @@
 Phagobranchium, Jankowski, 1967
 Testudinicola Jankowski, 1978.
 Espèce type : Trichophrya epistylidis Claparède &amp; Lachmann, 1859
-Selon Lynn (2008)[1].
+Selon Lynn (2008).
 Anarma Jankowski, 1981
 Brachyosoma Batisse, 1975
 Capriniana Strand, 1928 (subj. syn. Trichophrya)
@@ -660,9 +680,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Trichophryidae Fraipont, 1878[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Trichophryidae Fraipont, 1878.
 </t>
         </is>
       </c>
